--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-26_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-26_valid.xlsx
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="S26">
         <v>247</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="BD26">
-        <v>95.38461538461537</v>
+        <v>103.0769230769231</v>
       </c>
       <c r="BE26">
         <v>51.63763066202091</v>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="CP26">
-        <v>0.8367071524966261</v>
+        <v>0.904183535762483</v>
       </c>
       <c r="CQ26">
         <v>0.3611023123218245</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="DA26">
-        <v>0.5929596719070404</v>
+        <v>0.6258544087491456</v>
       </c>
     </row>
     <row r="27" spans="1:105">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="R36">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="S36">
         <v>856</v>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="BD36">
-        <v>115.7142857142857</v>
+        <v>154.2857142857143</v>
       </c>
       <c r="BE36">
         <v>112.8791208791209</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="CP36">
-        <v>1.015037593984963</v>
+        <v>1.353383458646616</v>
       </c>
       <c r="CQ36">
         <v>0.7893644816721741</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="DA36">
-        <v>0.82935718512001</v>
+        <v>0.8893172117689108</v>
       </c>
     </row>
     <row r="37" spans="1:105">
@@ -12661,7 +12661,7 @@
         <v>468</v>
       </c>
       <c r="M37">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>252.972972972973</v>
       </c>
       <c r="AY37">
-        <v>8.969072164948454</v>
+        <v>4.793814432989691</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -12889,7 +12889,7 @@
         <v>0.2529729729729729</v>
       </c>
       <c r="CK37">
-        <v>0.001933823235219589</v>
+        <v>0.001033595177444953</v>
       </c>
       <c r="CL37">
         <v>0</v>
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="DA37">
-        <v>0.09133661940276554</v>
+        <v>0.09067882564303567</v>
       </c>
     </row>
     <row r="38" spans="1:105">
@@ -15846,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S47">
         <v>306</v>
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="BD47">
-        <v>120.7272727272727</v>
+        <v>122.1818181818182</v>
       </c>
       <c r="BE47">
         <v>103.728813559322</v>
@@ -16074,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="CP47">
-        <v>1.059011164274322</v>
+        <v>1.07177033492823</v>
       </c>
       <c r="CQ47">
         <v>0.7253763185966576</v>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="DA47">
-        <v>0.8245177403848211</v>
+        <v>0.8301618775373538</v>
       </c>
     </row>
     <row r="48" spans="1:105">
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>3756</v>
+        <v>3729</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="AZ62">
-        <v>600.96</v>
+        <v>596.64</v>
       </c>
       <c r="BA62">
         <v>0</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="CL62">
-        <v>0.7070117647058825</v>
+        <v>0.7019294117647059</v>
       </c>
       <c r="CM62">
         <v>0</v>
@@ -20862,7 +20862,7 @@
         <v>0</v>
       </c>
       <c r="DA62">
-        <v>0.7070117647058825</v>
+        <v>0.7019294117647059</v>
       </c>
     </row>
     <row r="63" spans="1:105">
@@ -22171,7 +22171,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -22285,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="AY67">
-        <v>57.60000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ67">
         <v>0</v>
@@ -22399,7 +22399,7 @@
         <v>0</v>
       </c>
       <c r="CK67">
-        <v>0.01241914618369987</v>
+        <v>0</v>
       </c>
       <c r="CL67">
         <v>0</v>
@@ -22447,7 +22447,7 @@
         <v>0.2846715328467154</v>
       </c>
       <c r="DA67">
-        <v>0.2580837576178014</v>
+        <v>0.2567737211005335</v>
       </c>
     </row>
     <row r="68" spans="1:105">

--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-26_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-26_valid.xlsx
@@ -1545,13 +1545,13 @@
         <v>271</v>
       </c>
       <c r="F2">
-        <v>9.283333333333335</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="G2">
         <v>0.4333333333333333</v>
       </c>
       <c r="H2">
-        <v>9.716666666666669</v>
+        <v>9.716666666666667</v>
       </c>
       <c r="I2">
         <v>0.9554030874785592</v>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.3590664272890484</v>
+        <v>0.3590664272890485</v>
       </c>
       <c r="BX2">
-        <v>0.6409335727109514</v>
+        <v>0.6409335727109515</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.7144985789982482</v>
+        <v>0.7144985789982483</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -2332,7 +2332,7 @@
         <v>82.18487394957982</v>
       </c>
       <c r="BE4">
-        <v>78.35920177383591</v>
+        <v>78.35920177383592</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0.2087719298245614</v>
       </c>
       <c r="BX4">
-        <v>0.7912280701754387</v>
+        <v>0.7912280701754386</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.5840742821352241</v>
+        <v>0.5840742821352239</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -4715,13 +4715,13 @@
         <v>271</v>
       </c>
       <c r="F12">
-        <v>9.399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G12">
         <v>0.2833333333333333</v>
       </c>
       <c r="H12">
-        <v>9.683333333333332</v>
+        <v>9.683333333333334</v>
       </c>
       <c r="I12">
         <v>0.9707401032702238</v>
@@ -4922,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="BW12">
-        <v>0.3085106382978724</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="BX12">
-        <v>0.6914893617021277</v>
+        <v>0.6914893617021276</v>
       </c>
       <c r="BY12">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="DA12">
-        <v>0.8907730940205745</v>
+        <v>0.8907730940205744</v>
       </c>
     </row>
     <row r="13" spans="1:105">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="CP13">
-        <v>1.120107962213226</v>
+        <v>1.120107962213225</v>
       </c>
       <c r="CQ13">
         <v>0.8745575412242079</v>
@@ -6306,10 +6306,10 @@
         <v>1.55</v>
       </c>
       <c r="H17">
-        <v>9.583333333333332</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="I17">
-        <v>0.8382608695652175</v>
+        <v>0.8382608695652173</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -7251,16 +7251,16 @@
         <v>271</v>
       </c>
       <c r="F20">
-        <v>7.833333333333333</v>
+        <v>7.833333333333334</v>
       </c>
       <c r="G20">
         <v>1.583333333333333</v>
       </c>
       <c r="H20">
-        <v>9.416666666666666</v>
+        <v>9.416666666666668</v>
       </c>
       <c r="I20">
-        <v>0.8318584070796461</v>
+        <v>0.831858407079646</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -7461,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="BX20">
-        <v>0.4617021276595745</v>
+        <v>0.4617021276595744</v>
       </c>
       <c r="BY20">
-        <v>0.5382978723404256</v>
+        <v>0.5382978723404255</v>
       </c>
       <c r="BZ20">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.4762138570649209</v>
+        <v>0.4762138570649208</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -7577,7 +7577,7 @@
         <v>9.35</v>
       </c>
       <c r="I21">
-        <v>0.7736185383244206</v>
+        <v>0.7736185383244207</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0.7281105990783411</v>
+        <v>0.728110599078341</v>
       </c>
       <c r="BT21">
         <v>0</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="DA21">
-        <v>0.8295692577217505</v>
+        <v>0.8295692577217504</v>
       </c>
     </row>
     <row r="22" spans="1:105">
@@ -8519,13 +8519,13 @@
         <v>271</v>
       </c>
       <c r="F24">
-        <v>9.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -8720,13 +8720,13 @@
         <v>0</v>
       </c>
       <c r="BU24">
-        <v>0.1593406593406593</v>
+        <v>0.1593406593406594</v>
       </c>
       <c r="BV24">
         <v>0</v>
       </c>
       <c r="BW24">
-        <v>0.009157509157509156</v>
+        <v>0.009157509157509158</v>
       </c>
       <c r="BX24">
         <v>0</v>
@@ -8738,13 +8738,13 @@
         <v>0</v>
       </c>
       <c r="CA24">
-        <v>0.2069597069597069</v>
+        <v>0.206959706959707</v>
       </c>
       <c r="CB24">
         <v>0</v>
       </c>
       <c r="CC24">
-        <v>0.6245421245421244</v>
+        <v>0.6245421245421245</v>
       </c>
       <c r="CD24">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.927971795104662</v>
+        <v>0.9279717951046622</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.033333333333334</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="BI33">
-        <v>390.983606557377</v>
+        <v>390.9836065573771</v>
       </c>
       <c r="BJ33">
         <v>0</v>
@@ -11594,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="CB33">
-        <v>0.2646420824295011</v>
+        <v>0.264642082429501</v>
       </c>
       <c r="CC33">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="CU33">
-        <v>0.5385449126134669</v>
+        <v>0.538544912613467</v>
       </c>
       <c r="CV33">
         <v>0</v>
@@ -11794,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="AO34">
-        <v>4.449999999999999</v>
+        <v>4.45</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="BH34">
-        <v>295.056179775281</v>
+        <v>295.0561797752809</v>
       </c>
       <c r="BI34">
         <v>0</v>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="CA34">
-        <v>0.4990654205607476</v>
+        <v>0.4990654205607477</v>
       </c>
       <c r="CB34">
         <v>0</v>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="CT34">
-        <v>0.4064134707648498</v>
+        <v>0.4064134707648497</v>
       </c>
       <c r="CU34">
         <v>0</v>
@@ -12006,13 +12006,13 @@
         <v>271</v>
       </c>
       <c r="F35">
-        <v>9.316666666666665</v>
+        <v>9.316666666666666</v>
       </c>
       <c r="G35">
         <v>0.2166666666666667</v>
       </c>
       <c r="H35">
-        <v>9.533333333333331</v>
+        <v>9.533333333333333</v>
       </c>
       <c r="I35">
         <v>0.9772727272727273</v>
@@ -12216,7 +12216,7 @@
         <v>0.3309481216457961</v>
       </c>
       <c r="BX35">
-        <v>0.6690518783542041</v>
+        <v>0.669051878354204</v>
       </c>
       <c r="BY35">
         <v>0</v>
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="DA35">
-        <v>0.8580968038646225</v>
+        <v>0.8580968038646224</v>
       </c>
     </row>
     <row r="36" spans="1:105">
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>537.7297297297297</v>
+        <v>537.7297297297298</v>
       </c>
       <c r="BK38">
         <v>0</v>
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="CV38">
-        <v>0.740674558856377</v>
+        <v>0.7406745588563771</v>
       </c>
       <c r="CW38">
         <v>0</v>
@@ -13274,13 +13274,13 @@
         <v>271</v>
       </c>
       <c r="F39">
-        <v>9.366666666666665</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="G39">
         <v>0.3</v>
       </c>
       <c r="H39">
-        <v>9.666666666666666</v>
+        <v>9.666666666666668</v>
       </c>
       <c r="I39">
         <v>0.9689655172413792</v>
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="BW39">
-        <v>0.8558718861209964</v>
+        <v>0.8558718861209963</v>
       </c>
       <c r="BX39">
         <v>0.1441281138790036</v>
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="AQ40">
-        <v>3.366666666666666</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="CC40">
-        <v>0.3818525519848771</v>
+        <v>0.3818525519848772</v>
       </c>
       <c r="CD40">
         <v>0</v>
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="CV40">
-        <v>0.5138695687750594</v>
+        <v>0.5138695687750593</v>
       </c>
       <c r="CW40">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>272</v>
       </c>
       <c r="F43">
-        <v>9.200000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G43">
         <v>4.266666666666667</v>
@@ -14551,7 +14551,7 @@
         <v>13.46666666666667</v>
       </c>
       <c r="I43">
-        <v>0.6831683168316831</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>9.200000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="BD43">
-        <v>89.67391304347825</v>
+        <v>89.67391304347827</v>
       </c>
       <c r="BE43">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="CP43">
-        <v>0.7866132723112127</v>
+        <v>0.7866132723112128</v>
       </c>
       <c r="CQ43">
         <v>0</v>
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>0.7866132723112127</v>
+        <v>0.7866132723112128</v>
       </c>
     </row>
     <row r="44" spans="1:105">
@@ -15176,13 +15176,13 @@
         <v>271</v>
       </c>
       <c r="F45">
-        <v>9.450000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="G45">
         <v>0.1666666666666667</v>
       </c>
       <c r="H45">
-        <v>9.616666666666667</v>
+        <v>9.616666666666665</v>
       </c>
       <c r="I45">
         <v>0.9826689774696707</v>
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="BW45">
-        <v>0.6208112874779541</v>
+        <v>0.6208112874779542</v>
       </c>
       <c r="BX45">
         <v>0.3791887125220458</v>
@@ -18032,10 +18032,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>8.916666666666666</v>
+        <v>8.916666666666668</v>
       </c>
       <c r="H54">
-        <v>8.916666666666666</v>
+        <v>8.916666666666668</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -18980,16 +18980,16 @@
         <v>276</v>
       </c>
       <c r="F57">
-        <v>4.816666666666667</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="G57">
-        <v>2.183333333333333</v>
+        <v>2.183333333333334</v>
       </c>
       <c r="H57">
         <v>7</v>
       </c>
       <c r="I57">
-        <v>0.6880952380952382</v>
+        <v>0.6880952380952381</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="BZ57">
-        <v>0.05536332179930795</v>
+        <v>0.05536332179930796</v>
       </c>
       <c r="CA57">
         <v>0.1730103806228374</v>
@@ -19205,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="CC57">
-        <v>0.6332179930795847</v>
+        <v>0.6332179930795848</v>
       </c>
       <c r="CD57">
         <v>0</v>
@@ -19277,7 +19277,7 @@
         <v>0</v>
       </c>
       <c r="DA57">
-        <v>0.8344225764798271</v>
+        <v>0.8344225764798272</v>
       </c>
     </row>
     <row r="58" spans="1:105">
@@ -19614,13 +19614,13 @@
         <v>275</v>
       </c>
       <c r="F59">
-        <v>7.849999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="G59">
         <v>1.433333333333333</v>
       </c>
       <c r="H59">
-        <v>9.283333333333331</v>
+        <v>9.283333333333333</v>
       </c>
       <c r="I59">
         <v>0.8456014362657092</v>
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="BQ59">
-        <v>0.4628450106157114</v>
+        <v>0.4628450106157113</v>
       </c>
       <c r="BR59">
         <v>0</v>
@@ -21519,13 +21519,13 @@
         <v>1.15</v>
       </c>
       <c r="G65">
-        <v>8.083333333333332</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="H65">
-        <v>9.233333333333333</v>
+        <v>9.233333333333334</v>
       </c>
       <c r="I65">
-        <v>0.1245487364620939</v>
+        <v>0.1245487364620938</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -21833,13 +21833,13 @@
         <v>272</v>
       </c>
       <c r="F66">
-        <v>4.949999999999999</v>
+        <v>4.95</v>
       </c>
       <c r="G66">
         <v>4.533333333333333</v>
       </c>
       <c r="H66">
-        <v>9.483333333333333</v>
+        <v>9.483333333333334</v>
       </c>
       <c r="I66">
         <v>0.5219683655536028</v>
@@ -22022,7 +22022,7 @@
         <v>0.32996632996633</v>
       </c>
       <c r="BQ66">
-        <v>0.1616161616161617</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="BR66">
         <v>0</v>
@@ -22787,13 +22787,13 @@
         <v>8.683333333333334</v>
       </c>
       <c r="G69">
-        <v>0.7666666666666667</v>
+        <v>0.7666666666666666</v>
       </c>
       <c r="H69">
-        <v>9.450000000000001</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="I69">
-        <v>0.9188712522045854</v>
+        <v>0.9188712522045857</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>274</v>
       </c>
       <c r="F71">
-        <v>8.500000000000002</v>
+        <v>8.5</v>
       </c>
       <c r="G71">
         <v>0.9333333333333333</v>
       </c>
       <c r="H71">
-        <v>9.433333333333335</v>
+        <v>9.433333333333334</v>
       </c>
       <c r="I71">
         <v>0.9010600706713781</v>
@@ -23613,10 +23613,10 @@
         <v>0</v>
       </c>
       <c r="BS71">
-        <v>0.05882352941176469</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="BT71">
-        <v>0.6882352941176468</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="BU71">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="CB71">
-        <v>0.04509803921568627</v>
+        <v>0.04509803921568628</v>
       </c>
       <c r="CC71">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="DA71">
-        <v>0.8538787116207686</v>
+        <v>0.8538787116207689</v>
       </c>
     </row>
     <row r="72" spans="1:105">
@@ -25320,16 +25320,16 @@
         <v>271</v>
       </c>
       <c r="F77">
-        <v>7.3</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="G77">
         <v>1.3</v>
       </c>
       <c r="H77">
-        <v>8.6</v>
+        <v>8.600000000000001</v>
       </c>
       <c r="I77">
-        <v>0.8488372093023256</v>
+        <v>0.8488372093023255</v>
       </c>
       <c r="J77">
         <v>281</v>
@@ -25539,7 +25539,7 @@
         <v>0</v>
       </c>
       <c r="CA77">
-        <v>0.05936073059360731</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="CB77">
         <v>0</v>
@@ -26050,7 +26050,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="AL79">
-        <v>5.95</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="AM79">
         <v>0</v>
@@ -26164,7 +26164,7 @@
         <v>0.3590664272890485</v>
       </c>
       <c r="BX79">
-        <v>0.6409335727109515</v>
+        <v>0.6409335727109514</v>
       </c>
       <c r="BY79">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>0.9552631578947368</v>
       </c>
       <c r="CQ79">
-        <v>0.3279073867309161</v>
+        <v>0.3279073867309162</v>
       </c>
       <c r="CR79">
         <v>0</v>
@@ -26271,13 +26271,13 @@
         <v>271</v>
       </c>
       <c r="F80">
-        <v>9.266666666666666</v>
+        <v>9.266666666666667</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>9.266666666666666</v>
+        <v>9.266666666666667</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -26373,7 +26373,7 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>9.266666666666666</v>
+        <v>9.266666666666667</v>
       </c>
       <c r="AO80">
         <v>0</v>
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
       <c r="CS80">
-        <v>0.4305755395683454</v>
+        <v>0.4305755395683453</v>
       </c>
       <c r="CT80">
         <v>0</v>
@@ -26568,7 +26568,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>0.4305755395683454</v>
+        <v>0.4305755395683453</v>
       </c>
     </row>
   </sheetData>

--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-26_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-26_valid.xlsx
@@ -1545,13 +1545,13 @@
         <v>271</v>
       </c>
       <c r="F2">
-        <v>9.283333333333333</v>
+        <v>9.283333333333335</v>
       </c>
       <c r="G2">
         <v>0.4333333333333333</v>
       </c>
       <c r="H2">
-        <v>9.716666666666667</v>
+        <v>9.716666666666669</v>
       </c>
       <c r="I2">
         <v>0.9554030874785592</v>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.3590664272890485</v>
+        <v>0.3590664272890484</v>
       </c>
       <c r="BX2">
-        <v>0.6409335727109515</v>
+        <v>0.6409335727109514</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.7144985789982483</v>
+        <v>0.7144985789982482</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -2332,7 +2332,7 @@
         <v>82.18487394957982</v>
       </c>
       <c r="BE4">
-        <v>78.35920177383592</v>
+        <v>78.35920177383591</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0.2087719298245614</v>
       </c>
       <c r="BX4">
-        <v>0.7912280701754386</v>
+        <v>0.7912280701754387</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.5840742821352239</v>
+        <v>0.5840742821352241</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -4715,13 +4715,13 @@
         <v>271</v>
       </c>
       <c r="F12">
-        <v>9.4</v>
+        <v>9.399999999999999</v>
       </c>
       <c r="G12">
         <v>0.2833333333333333</v>
       </c>
       <c r="H12">
-        <v>9.683333333333334</v>
+        <v>9.683333333333332</v>
       </c>
       <c r="I12">
         <v>0.9707401032702238</v>
@@ -4922,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="BW12">
-        <v>0.3085106382978723</v>
+        <v>0.3085106382978724</v>
       </c>
       <c r="BX12">
-        <v>0.6914893617021276</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="BY12">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="DA12">
-        <v>0.8907730940205744</v>
+        <v>0.8907730940205745</v>
       </c>
     </row>
     <row r="13" spans="1:105">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="CP13">
-        <v>1.120107962213225</v>
+        <v>1.120107962213226</v>
       </c>
       <c r="CQ13">
         <v>0.8745575412242079</v>
@@ -6306,10 +6306,10 @@
         <v>1.55</v>
       </c>
       <c r="H17">
-        <v>9.583333333333334</v>
+        <v>9.583333333333332</v>
       </c>
       <c r="I17">
-        <v>0.8382608695652173</v>
+        <v>0.8382608695652175</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -7251,16 +7251,16 @@
         <v>271</v>
       </c>
       <c r="F20">
-        <v>7.833333333333334</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="G20">
         <v>1.583333333333333</v>
       </c>
       <c r="H20">
-        <v>9.416666666666668</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="I20">
-        <v>0.831858407079646</v>
+        <v>0.8318584070796461</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -7461,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="BX20">
-        <v>0.4617021276595744</v>
+        <v>0.4617021276595745</v>
       </c>
       <c r="BY20">
-        <v>0.5382978723404255</v>
+        <v>0.5382978723404256</v>
       </c>
       <c r="BZ20">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.4762138570649208</v>
+        <v>0.4762138570649209</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -7577,7 +7577,7 @@
         <v>9.35</v>
       </c>
       <c r="I21">
-        <v>0.7736185383244207</v>
+        <v>0.7736185383244206</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0.728110599078341</v>
+        <v>0.7281105990783411</v>
       </c>
       <c r="BT21">
         <v>0</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="DA21">
-        <v>0.8295692577217504</v>
+        <v>0.8295692577217505</v>
       </c>
     </row>
     <row r="22" spans="1:105">
@@ -8519,13 +8519,13 @@
         <v>271</v>
       </c>
       <c r="F24">
-        <v>9.1</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9.1</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -8720,13 +8720,13 @@
         <v>0</v>
       </c>
       <c r="BU24">
-        <v>0.1593406593406594</v>
+        <v>0.1593406593406593</v>
       </c>
       <c r="BV24">
         <v>0</v>
       </c>
       <c r="BW24">
-        <v>0.009157509157509158</v>
+        <v>0.009157509157509156</v>
       </c>
       <c r="BX24">
         <v>0</v>
@@ -8738,13 +8738,13 @@
         <v>0</v>
       </c>
       <c r="CA24">
-        <v>0.206959706959707</v>
+        <v>0.2069597069597069</v>
       </c>
       <c r="CB24">
         <v>0</v>
       </c>
       <c r="CC24">
-        <v>0.6245421245421245</v>
+        <v>0.6245421245421244</v>
       </c>
       <c r="CD24">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.9279717951046622</v>
+        <v>0.927971795104662</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.033333333333333</v>
+        <v>2.033333333333334</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="BI33">
-        <v>390.9836065573771</v>
+        <v>390.983606557377</v>
       </c>
       <c r="BJ33">
         <v>0</v>
@@ -11594,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="CB33">
-        <v>0.264642082429501</v>
+        <v>0.2646420824295011</v>
       </c>
       <c r="CC33">
         <v>0</v>
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="CU33">
-        <v>0.538544912613467</v>
+        <v>0.5385449126134669</v>
       </c>
       <c r="CV33">
         <v>0</v>
@@ -11794,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="AO34">
-        <v>4.45</v>
+        <v>4.449999999999999</v>
       </c>
       <c r="AP34">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="BH34">
-        <v>295.0561797752809</v>
+        <v>295.056179775281</v>
       </c>
       <c r="BI34">
         <v>0</v>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="CA34">
-        <v>0.4990654205607477</v>
+        <v>0.4990654205607476</v>
       </c>
       <c r="CB34">
         <v>0</v>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="CT34">
-        <v>0.4064134707648497</v>
+        <v>0.4064134707648498</v>
       </c>
       <c r="CU34">
         <v>0</v>
@@ -12006,13 +12006,13 @@
         <v>271</v>
       </c>
       <c r="F35">
-        <v>9.316666666666666</v>
+        <v>9.316666666666665</v>
       </c>
       <c r="G35">
         <v>0.2166666666666667</v>
       </c>
       <c r="H35">
-        <v>9.533333333333333</v>
+        <v>9.533333333333331</v>
       </c>
       <c r="I35">
         <v>0.9772727272727273</v>
@@ -12216,7 +12216,7 @@
         <v>0.3309481216457961</v>
       </c>
       <c r="BX35">
-        <v>0.669051878354204</v>
+        <v>0.6690518783542041</v>
       </c>
       <c r="BY35">
         <v>0</v>
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="DA35">
-        <v>0.8580968038646224</v>
+        <v>0.8580968038646225</v>
       </c>
     </row>
     <row r="36" spans="1:105">
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>537.7297297297298</v>
+        <v>537.7297297297297</v>
       </c>
       <c r="BK38">
         <v>0</v>
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="CV38">
-        <v>0.7406745588563771</v>
+        <v>0.740674558856377</v>
       </c>
       <c r="CW38">
         <v>0</v>
@@ -13274,13 +13274,13 @@
         <v>271</v>
       </c>
       <c r="F39">
-        <v>9.366666666666667</v>
+        <v>9.366666666666665</v>
       </c>
       <c r="G39">
         <v>0.3</v>
       </c>
       <c r="H39">
-        <v>9.666666666666668</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="I39">
         <v>0.9689655172413792</v>
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="BW39">
-        <v>0.8558718861209963</v>
+        <v>0.8558718861209964</v>
       </c>
       <c r="BX39">
         <v>0.1441281138790036</v>
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="AQ40">
-        <v>3.366666666666667</v>
+        <v>3.366666666666666</v>
       </c>
       <c r="AR40">
         <v>0</v>
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="CC40">
-        <v>0.3818525519848772</v>
+        <v>0.3818525519848771</v>
       </c>
       <c r="CD40">
         <v>0</v>
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="CV40">
-        <v>0.5138695687750593</v>
+        <v>0.5138695687750594</v>
       </c>
       <c r="CW40">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>272</v>
       </c>
       <c r="F43">
-        <v>9.199999999999999</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="G43">
         <v>4.266666666666667</v>
@@ -14551,7 +14551,7 @@
         <v>13.46666666666667</v>
       </c>
       <c r="I43">
-        <v>0.6831683168316832</v>
+        <v>0.6831683168316831</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>9.199999999999999</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -14692,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="BD43">
-        <v>89.67391304347827</v>
+        <v>89.67391304347825</v>
       </c>
       <c r="BE43">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="CP43">
-        <v>0.7866132723112128</v>
+        <v>0.7866132723112127</v>
       </c>
       <c r="CQ43">
         <v>0</v>
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>0.7866132723112128</v>
+        <v>0.7866132723112127</v>
       </c>
     </row>
     <row r="44" spans="1:105">
@@ -15176,13 +15176,13 @@
         <v>271</v>
       </c>
       <c r="F45">
-        <v>9.449999999999999</v>
+        <v>9.450000000000001</v>
       </c>
       <c r="G45">
         <v>0.1666666666666667</v>
       </c>
       <c r="H45">
-        <v>9.616666666666665</v>
+        <v>9.616666666666667</v>
       </c>
       <c r="I45">
         <v>0.9826689774696707</v>
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="BW45">
-        <v>0.6208112874779542</v>
+        <v>0.6208112874779541</v>
       </c>
       <c r="BX45">
         <v>0.3791887125220458</v>
@@ -18032,10 +18032,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>8.916666666666668</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="H54">
-        <v>8.916666666666668</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -18980,16 +18980,16 @@
         <v>276</v>
       </c>
       <c r="F57">
-        <v>4.816666666666666</v>
+        <v>4.816666666666667</v>
       </c>
       <c r="G57">
-        <v>2.183333333333334</v>
+        <v>2.183333333333333</v>
       </c>
       <c r="H57">
         <v>7</v>
       </c>
       <c r="I57">
-        <v>0.6880952380952381</v>
+        <v>0.6880952380952382</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="BZ57">
-        <v>0.05536332179930796</v>
+        <v>0.05536332179930795</v>
       </c>
       <c r="CA57">
         <v>0.1730103806228374</v>
@@ -19205,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="CC57">
-        <v>0.6332179930795848</v>
+        <v>0.6332179930795847</v>
       </c>
       <c r="CD57">
         <v>0</v>
@@ -19277,7 +19277,7 @@
         <v>0</v>
       </c>
       <c r="DA57">
-        <v>0.8344225764798272</v>
+        <v>0.8344225764798271</v>
       </c>
     </row>
     <row r="58" spans="1:105">
@@ -19614,13 +19614,13 @@
         <v>275</v>
       </c>
       <c r="F59">
-        <v>7.85</v>
+        <v>7.849999999999999</v>
       </c>
       <c r="G59">
         <v>1.433333333333333</v>
       </c>
       <c r="H59">
-        <v>9.283333333333333</v>
+        <v>9.283333333333331</v>
       </c>
       <c r="I59">
         <v>0.8456014362657092</v>
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="BQ59">
-        <v>0.4628450106157113</v>
+        <v>0.4628450106157114</v>
       </c>
       <c r="BR59">
         <v>0</v>
@@ -21519,13 +21519,13 @@
         <v>1.15</v>
       </c>
       <c r="G65">
-        <v>8.083333333333334</v>
+        <v>8.083333333333332</v>
       </c>
       <c r="H65">
-        <v>9.233333333333334</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="I65">
-        <v>0.1245487364620938</v>
+        <v>0.1245487364620939</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -21833,13 +21833,13 @@
         <v>272</v>
       </c>
       <c r="F66">
-        <v>4.95</v>
+        <v>4.949999999999999</v>
       </c>
       <c r="G66">
         <v>4.533333333333333</v>
       </c>
       <c r="H66">
-        <v>9.483333333333334</v>
+        <v>9.483333333333333</v>
       </c>
       <c r="I66">
         <v>0.5219683655536028</v>
@@ -22022,7 +22022,7 @@
         <v>0.32996632996633</v>
       </c>
       <c r="BQ66">
-        <v>0.1616161616161616</v>
+        <v>0.1616161616161617</v>
       </c>
       <c r="BR66">
         <v>0</v>
@@ -22787,13 +22787,13 @@
         <v>8.683333333333334</v>
       </c>
       <c r="G69">
-        <v>0.7666666666666666</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="H69">
-        <v>9.449999999999999</v>
+        <v>9.450000000000001</v>
       </c>
       <c r="I69">
-        <v>0.9188712522045857</v>
+        <v>0.9188712522045854</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>274</v>
       </c>
       <c r="F71">
-        <v>8.5</v>
+        <v>8.500000000000002</v>
       </c>
       <c r="G71">
         <v>0.9333333333333333</v>
       </c>
       <c r="H71">
-        <v>9.433333333333334</v>
+        <v>9.433333333333335</v>
       </c>
       <c r="I71">
         <v>0.9010600706713781</v>
@@ -23613,10 +23613,10 @@
         <v>0</v>
       </c>
       <c r="BS71">
-        <v>0.05882352941176471</v>
+        <v>0.05882352941176469</v>
       </c>
       <c r="BT71">
-        <v>0.6882352941176471</v>
+        <v>0.6882352941176468</v>
       </c>
       <c r="BU71">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="CB71">
-        <v>0.04509803921568628</v>
+        <v>0.04509803921568627</v>
       </c>
       <c r="CC71">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="DA71">
-        <v>0.8538787116207689</v>
+        <v>0.8538787116207686</v>
       </c>
     </row>
     <row r="72" spans="1:105">
@@ -25320,16 +25320,16 @@
         <v>271</v>
       </c>
       <c r="F77">
-        <v>7.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="G77">
         <v>1.3</v>
       </c>
       <c r="H77">
-        <v>8.600000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I77">
-        <v>0.8488372093023255</v>
+        <v>0.8488372093023256</v>
       </c>
       <c r="J77">
         <v>281</v>
@@ -25539,7 +25539,7 @@
         <v>0</v>
       </c>
       <c r="CA77">
-        <v>0.0593607305936073</v>
+        <v>0.05936073059360731</v>
       </c>
       <c r="CB77">
         <v>0</v>
@@ -26050,7 +26050,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="AL79">
-        <v>5.949999999999999</v>
+        <v>5.95</v>
       </c>
       <c r="AM79">
         <v>0</v>
@@ -26164,7 +26164,7 @@
         <v>0.3590664272890485</v>
       </c>
       <c r="BX79">
-        <v>0.6409335727109514</v>
+        <v>0.6409335727109515</v>
       </c>
       <c r="BY79">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>0.9552631578947368</v>
       </c>
       <c r="CQ79">
-        <v>0.3279073867309162</v>
+        <v>0.3279073867309161</v>
       </c>
       <c r="CR79">
         <v>0</v>
@@ -26271,13 +26271,13 @@
         <v>271</v>
       </c>
       <c r="F80">
-        <v>9.266666666666667</v>
+        <v>9.266666666666666</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>9.266666666666667</v>
+        <v>9.266666666666666</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -26373,7 +26373,7 @@
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>9.266666666666667</v>
+        <v>9.266666666666666</v>
       </c>
       <c r="AO80">
         <v>0</v>
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
       <c r="CS80">
-        <v>0.4305755395683453</v>
+        <v>0.4305755395683454</v>
       </c>
       <c r="CT80">
         <v>0</v>
@@ -26568,7 +26568,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>0.4305755395683453</v>
+        <v>0.4305755395683454</v>
       </c>
     </row>
   </sheetData>
